--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/17/correct_predictions_17.xlsx
@@ -647,21 +647,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1427,31 +1427,31 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1466,52 +1466,52 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft antenna satellite signal searching error</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1526,52 +1526,52 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1586,37 +1586,37 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1646,17 +1646,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-22</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2237,31 +2237,31 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2276,52 +2276,52 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2336,52 +2336,52 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2396,42 +2396,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2456,42 +2456,42 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2516,47 +2516,47 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2576,42 +2576,42 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2636,37 +2636,37 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2696,52 +2696,52 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2756,52 +2756,52 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2816,77 +2816,77 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cannot enable Follow Me Mode</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2897,31 +2897,31 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Temp Max Altitude 98ft</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/17/correct_predictions_17.xlsx
@@ -647,21 +647,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>RTH Altitude 98FT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1427,31 +1427,31 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1466,52 +1466,52 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>Aircraft antenna satellite signal searching error</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1526,52 +1526,52 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
+          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1586,37 +1586,37 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1646,17 +1646,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3-22</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2237,31 +2237,31 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2276,52 +2276,52 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2336,52 +2336,52 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2396,42 +2396,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2456,42 +2456,42 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2516,47 +2516,47 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2576,42 +2576,42 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2636,37 +2636,37 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2696,52 +2696,52 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2756,52 +2756,52 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2816,77 +2816,77 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2897,31 +2897,31 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cannot enable Follow Me Mode</t>
+          <t>Temp Max Altitude 98ft</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
